--- a/Base_Data/02S404.xlsx
+++ b/Base_Data/02S404.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyong\Desktop\Criterion-Database\Base_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63373E90-62F6-4173-B1C0-2C96C6F88799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697BF958-572C-4AD3-A9B8-930CB6C75489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="345" windowWidth="13110" windowHeight="14220" firstSheet="1" activeTab="5" xr2:uid="{CE243F28-D019-486D-BDD3-986A12970610}"/>
+    <workbookView xWindow="10560" yWindow="885" windowWidth="17835" windowHeight="14220" firstSheet="1" activeTab="4" xr2:uid="{CE243F28-D019-486D-BDD3-986A12970610}"/>
   </bookViews>
   <sheets>
     <sheet name="柔性防水套管" sheetId="1" r:id="rId1"/>
@@ -4965,9 +4965,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" ref="C43:C58" si="2">CONCATENATE("钢管",K43,"/球墨铸铁管",L43)</f>
-        <v>钢管118/球墨铸铁管18</v>
+        <v>钢管118/球墨铸铁管118</v>
       </c>
       <c r="D43" s="3">
         <v>160</v>
@@ -6454,7 +6454,7 @@
         <v>118</v>
       </c>
       <c r="L43" s="3">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="M43" s="3">
         <v>12</v>
@@ -7086,7 +7086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75A2F56-7D28-4C9B-9CDF-1D2765B3823F}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
